--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_All.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_All.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1260">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1262">
   <x:si>
     <x:t>AddROI</x:t>
   </x:si>
@@ -156,13 +156,13 @@
     <x:t>AnalysisProgressIndicator</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR024, @UR022, @Analysis</x:t>
+    <x:t>@FR, @FR024, @UR022, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>ShowFileUploadProgress</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR024-1, @UR022-1</x:t>
+    <x:t>@FR024-1, @UR022-1, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>I have logged in with analysis permissions</x:t>
@@ -207,7 +207,7 @@
     <x:t>Anonymise DICOM Images</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR011, @UR011, @Security</x:t>
+    <x:t>@FR, @FR011, @UR011, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>AnonymiseDICOMImage</x:t>
@@ -228,7 +228,7 @@
     <x:t>AuthorisationAccess</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR020, @UR017, @Security</x:t>
+    <x:t>@FR, @FR020, @UR017, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>AnonymousCanAccessHomepage</x:t>
@@ -396,7 +396,7 @@
     <x:t>the assistdent.net analysis page is not displayed</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR023, @UR017, @Security</x:t>
+    <x:t>@FR, @FR023, @UR017, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>UserCanAccessLogin</x:t>
@@ -468,7 +468,7 @@
     <x:t>BypassLogin</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR013, @UR013, @Security</x:t>
+    <x:t>@FR, @FR013, @UR013, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>CanAnalyzeFromAllowedIPAddress</x:t>
@@ -528,7 +528,7 @@
     <x:t>CommandLineInterface</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR026, @Integration</x:t>
+    <x:t>@FR, @FR026, @UR024, @Integration, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>PassImage</x:t>
@@ -540,7 +540,7 @@
     <x:t>I request AssistDent from the command line</x:t>
   </x:si>
   <x:si>
-    <x:t>the -image option is set to "image8.tif"</x:t>
+    <x:t>the --image option is set to "image8.tif"</x:t>
   </x:si>
   <x:si>
     <x:t>AssistDent starts</x:t>
@@ -555,7 +555,7 @@
     <x:t>@FR026-2, @UR024-1</x:t>
   </x:si>
   <x:si>
-    <x:t>the -title option is set to "Developer/Dave"</x:t>
+    <x:t>the --title option is set to "Developer/Dave"</x:t>
   </x:si>
   <x:si>
     <x:t>the window title contains the text "Developer/Dave"</x:t>
@@ -564,7 +564,7 @@
     <x:t>ControlButtonTooltips</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR010, @UR010, @Labelling</x:t>
+    <x:t>@FR, @FR010, @UR010, @Labelling, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>ShowTooltip</x:t>
@@ -624,7 +624,7 @@
     <x:t>CustomerPayment</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR031, @UR029, @Admin, @Desktop</x:t>
+    <x:t>@FR, @FR031, @UR029, @Admin, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>TakePaymentUK</x:t>
@@ -711,7 +711,7 @@
     <x:t>DisplayDeleteButton</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR006-1, @UR006-1, @Web</x:t>
+    <x:t>@FR006-1, @UR006-1, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>2 submitted bitewing images</x:t>
@@ -753,7 +753,7 @@
     <x:t>DetectionLogging</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR021, @UR019, @Admin</x:t>
+    <x:t>@FR, @FR021, @UR019, @Admin, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>ViewLoggedUserDetection</x:t>
@@ -804,7 +804,7 @@
     <x:t>DICOMImageFormat</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR017, @UR016, @Analysis</x:t>
+    <x:t>@FR, @FR017, @UR016, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>CanAnalyseTiffImages</x:t>
@@ -855,7 +855,7 @@
     <x:t>DisplayImages</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR001-2, @UR001-2</x:t>
+    <x:t>@FR001-2, @UR001-2, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>multiple bitewing images</x:t>
@@ -867,7 +867,7 @@
     <x:t>FeatureTour</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR012, @UR012, @Labelling</x:t>
+    <x:t>@FR, @FR012, @UR012, @Labelling, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>StartFeatureTour</x:t>
@@ -912,7 +912,7 @@
     <x:t>FullScreen</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR005, @UR005, @Analysis</x:t>
+    <x:t>@FR, @FR005, @UR005, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>The image shall be displayed expanded to fill as much of the screen as possible</x:t>
@@ -969,7 +969,7 @@
     <x:t>GenerateAndViewFeedback</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR022, @UR020, @UR021, @Admin</x:t>
+    <x:t>@FR, @FR022, @UR020, @UR021, @Admin, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>UserCanAccessFeedbackForm</x:t>
@@ -1074,7 +1074,7 @@
     <x:t>ImageID</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR025, @Analysis</x:t>
+    <x:t>@FR, @FR025, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>ShowImageIDFilename</x:t>
@@ -1161,7 +1161,7 @@
     <x:t>ImageSubmit</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR018, @UR016, @Analysis</x:t>
+    <x:t>@FR, @FR018, @UR016, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>CanSubmitImageByBrowsing</x:t>
@@ -1212,13 +1212,13 @@
     <x:t>LegalInformationPage</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR015, @UR015, @Labelling, @Web, @Desktop</x:t>
+    <x:t>@FR, @FR015, @UR015, @Labelling</x:t>
   </x:si>
   <x:si>
     <x:t>CanAccessLegalPage</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR015-1, @UR015-1, @Web</x:t>
+    <x:t>@FR015-1, @UR015-1, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>I enter URL &lt;base&gt;/Legal</x:t>
@@ -1233,7 +1233,7 @@
     <x:t>CanAccessClinicalUse</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR015-2, @UR015-1, @Desktop</x:t>
+    <x:t>@FR015-2, @UR015-1, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>I open the About menu option</x:t>
@@ -1248,7 +1248,7 @@
     <x:t>ManageAllowedIPRanges</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR014, @UR014, @Security</x:t>
+    <x:t>@FR, @FR014, @UR014, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>CanAccessAllowedIPRangeURL</x:t>
@@ -1374,7 +1374,7 @@
     <x:t>ManageUserLogins</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR019, @UR018, @Security, @Web</x:t>
+    <x:t>@FR, @FR019, @UR018, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>CanAccessManageUsersURL</x:t>
@@ -1482,7 +1482,7 @@
     <x:t>ProgressDisplay</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR028, @UR026, @Analysis</x:t>
+    <x:t>@FR, @FR028, @UR026, @Analysis, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>ShowAnalysisFeedback</x:t>
@@ -1623,7 +1623,7 @@
     <x:t>SeeWhatsNew</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR029, @UR027, @Analysis</x:t>
+    <x:t>@FR, @FR029, @UR027, @Analysis, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>SeeWhatsNewOnStartup</x:t>
@@ -1698,7 +1698,7 @@
     <x:t>TiffImageFormat</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR016, @UR016, @Analysis</x:t>
+    <x:t>@FR, @FR016, @UR016, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>@FR016-1, @UR016-1, @UR016-3</x:t>
@@ -1716,7 +1716,7 @@
     <x:t>AccessAnnotationToggle</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR007-1, @UR007-1, @Web</x:t>
+    <x:t>@FR007-1, @UR007-1, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>a hide annotation button shall be displayed alongside each image</x:t>
@@ -1785,7 +1785,184 @@
     <x:t>UpdateClient</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR026, @Admin</x:t>
+    <x:t>@FR, @FR027, @UR025, @Admin, @DesktopOnly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RegisterUser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-1, @UR025-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no licence exists for the current machine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I start the desktop app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the user registration form is displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I enter the registration details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the desktop app starts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExpiredLicenceRestrictsAccess</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-2, @UR025-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a licence exists for the current machine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence is expired</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a message tells me to upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExpiredLicenceRedirectsToUpgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-3, @UR025-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the upgrade trial licence web page is displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ManualUpgradeAvailable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-4, @UR025-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence is not expired</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the menu includes an option to upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ManualUpgradeLinksToStore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-5, @UR025-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have started the desktop app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I choose the menu option "Upgrade Licence"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the choice of upgrade options is approriate to my country</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ValidLicence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-6, @UR025-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the desktop app opens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DisplayLicence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-7, @UR025-5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I open the About Box</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence key is displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence expiry date is displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licensee is displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnterNewLicenceKey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-8, @UR025-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I click Enter Key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I enter a new valid key from the same CryptoLens product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the key is accepted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I restart the application</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the application restarts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EnterNewLicenceKeyNewProduct</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-9, @UR025-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I enter a new valid key prefixed with a new product id in the form "{product-id}:{licence-key}"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PurchaseLicenseExtension</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-10, @UR025-7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I choose the Purchase Upgrade menu option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I fill in my payment details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I complete the purchase</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I restart the desktop app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the license period is extended by the amount specified for the purchased product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConfigureTrialPeriod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR027-11, @UR025-8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I configure the store app to generate a &lt;num1&gt; day(s) licence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I register for a trial licence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the licence expiry date can be seen in the application</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the expiry date is in &lt;num2&gt; day(s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>num1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>num2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR, @FR032, @Admin, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>UpdateNotAvailable</x:t>
@@ -1821,181 +1998,10 @@
     <x:t>the message includes a link</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR027, @UR025, @Admin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RegisterUser</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-1, @UR025-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>no licence exists for the current machine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I start the desktop app</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the user registration form is displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I enter the registration details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the desktop app starts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExpiredLicenceRestrictsAccess</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-2, @UR025-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a licence exists for the current machine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the licence is expired</x:t>
-  </x:si>
-  <x:si>
-    <x:t>a message tells me to upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExpiredLicenceRedirectsToUpgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-3, @UR025-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the upgrade trial licence web page is displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ManualUpgradeAvailable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-4, @UR025-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the licence is not expired</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the menu includes an option to upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ManualUpgradeLinksToStore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-5, @UR025-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have started the desktop app</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I choose the menu option "Upgrade Licence"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the choice of upgrade options is approriate to my country</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ValidLicence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-6, @UR025-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the desktop app opens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DisplayLicence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-7, @UR025-5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I open the About Box</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the licence key is displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the licence expiry date is displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the licensee is displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnterNewLicenceKey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-8, @UR025-6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I click Enter Key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I enter a new valid key from the same CryptoLens product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the key is accepted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I restart the application</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the application restarts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EnterNewLicenceKeyNewProduct</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-9, @UR025-6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I enter a new valid key prefixed with a new product id in the form "{product-id}:{licence-key}"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PurchaseLicenseExtension</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-10, @UR025-7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I choose the Purchase Upgrade menu option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I fill in my payment details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I complete the purchase</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I restart the desktop app</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the license period is extended by the amount specified for the purchased product</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConfigureTrialPeriod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@FR027-11, @UR025-8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I configure the store app to generate a num day(s) licence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I register for a trial licence</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the licence expiry date can be seen in the application</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the expiry date is in num day(s)</x:t>
-  </x:si>
-  <x:si>
     <x:t>UserRegistration</x:t>
   </x:si>
   <x:si>
-    <x:t>@FR, @FR030, @UR028, @Admin</x:t>
+    <x:t>@FR, @FR030, @UR028, @Admin, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>ShowRegistrationForm</x:t>
@@ -2052,7 +2058,7 @@
     <x:t>CariesDetectionPerformance</x:t>
   </x:si>
   <x:si>
-    <x:t>@NFR, @NFR002, @UR003, @Performance</x:t>
+    <x:t>@NFR, @NFR002, @UR003, @Performance, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>Measure the performance on the evaluation image set</x:t>
@@ -2688,7 +2694,7 @@
     <x:t>EncryptTraffic</x:t>
   </x:si>
   <x:si>
-    <x:t>@NFR, @NFR001, @UR011, @Security</x:t>
+    <x:t>@NFR, @NFR001, @UR011, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>WebsiteUsesSSL</x:t>
@@ -2742,7 +2748,7 @@
     <x:t>CustomerDataStoredSecurely</x:t>
   </x:si>
   <x:si>
-    <x:t>@NFR003-1, @Desktop</x:t>
+    <x:t>@NFR003-1, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>I have customers</x:t>
@@ -2751,7 +2757,7 @@
     <x:t>all customers details are storred securely and exclusively on Stripe</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR008, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR008, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -2771,7 +2777,7 @@
     <x:t>AllowIPRange</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR014, @Security, @Web</x:t>
+    <x:t>@UR, @UR014, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">As an administrator
@@ -2842,7 +2848,7 @@
     <x:t>the expiry date is updated in the list of Allowed IP Ranges</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR013, @Security, @Web</x:t>
+    <x:t>@UR, @UR013, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist at an institution
@@ -2881,7 +2887,7 @@
     <x:t>I am using a computer within an allowed IP range but an expiry date in the past</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR024, @Integration, @Desktop</x:t>
+    <x:t>@UR, @UR024, @Integration, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a third-party developer
@@ -2908,7 +2914,7 @@
     <x:t>ControButtonToolTips</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR010, @Labelling, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR010, @Labelling, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">	As a dentist 
@@ -2925,7 +2931,7 @@
     <x:t>tool-tips appear to indicate the function of each button</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR029, @Desktop, @Admin</x:t>
+    <x:t>@UR, @UR029, @DesktopOnly, @Admin</x:t>
   </x:si>
   <x:si>
     <x:t>As a company
@@ -2948,7 +2954,7 @@
     <x:t>DeleteCariesROI</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR006, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR006, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -2974,7 +2980,7 @@
     <x:t>DesktopLicensing</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR025, @Admin, @Desktop</x:t>
+    <x:t>@UR, @UR025, @Admin, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a company
@@ -3090,7 +3096,7 @@
     <x:t>DisplayCariesDetection</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR002, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR002, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3107,7 +3113,7 @@
     <x:t>the detected teeth are indicated on the image</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR003, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR003, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3133,7 +3139,7 @@
     <x:t>the detected caries ROI indicators are easily visible</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR001, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR001, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3153,7 +3159,7 @@
     <x:t>MultipleImagesDisplayed</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR001-2</x:t>
+    <x:t>@UR001-2, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>I submit 4 images</x:t>
@@ -3165,7 +3171,7 @@
     <x:t>EnterFeedback</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR021, @Admin, @Web</x:t>
+    <x:t>@UR, @UR021, @Admin, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a user
@@ -3191,7 +3197,7 @@
     <x:t>ExpandImage</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR005, @Analysis, @Web</x:t>
+    <x:t>@UR, @UR005, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3227,7 +3233,7 @@
     <x:t>the image is displayed in preview/tile view</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR012, @Labelling, @Web</x:t>
+    <x:t>@UR, @UR012, @Labelling, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist 
@@ -3271,7 +3277,7 @@
     <x:t>full screen is introduced</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR023, @Analysis, @Web</x:t>
+    <x:t>@UR, @UR023, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">	As a user
@@ -3311,7 +3317,7 @@
     <x:t>LegalLabelling</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR015, @Labelling, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR015, @Labelling</x:t>
   </x:si>
   <x:si>
     <x:t>As a regulator
@@ -3355,7 +3361,7 @@
     <x:t>LogDetections</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR019, @Security, @Web</x:t>
+    <x:t>@UR, @UR019, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As an admin 
@@ -3402,7 +3408,7 @@
     <x:t>MagnifyImage</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR004, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR004, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3440,7 +3446,7 @@
     <x:t>I move the mouse cursor over a tooth indicator</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR018, @Security, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR018, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As an administrator
@@ -3451,7 +3457,7 @@
     <x:t>ListUsers</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR018-1, @Web</x:t>
+    <x:t>@UR018-1</x:t>
   </x:si>
   <x:si>
     <x:t>I request the Manage Users page</x:t>
@@ -3463,7 +3469,7 @@
     <x:t>AddUser</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR018-2, @Web</x:t>
+    <x:t>@UR018-2</x:t>
   </x:si>
   <x:si>
     <x:t>I create an User</x:t>
@@ -3481,7 +3487,7 @@
     <x:t>DeleteUser</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR018-3, @Web</x:t>
+    <x:t>@UR018-3</x:t>
   </x:si>
   <x:si>
     <x:t>a single User exists</x:t>
@@ -3496,7 +3502,7 @@
     <x:t>ProtectPatientData</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR011, @Security, @Web</x:t>
+    <x:t>@UR, @UR011, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist 
@@ -3537,7 +3543,7 @@
     <x:t>RepositionCariesROI</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR009, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR009, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">	As a dentist 
@@ -3572,7 +3578,7 @@
     <x:t>RestrictAccess</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR028, @Desktop, @Admin</x:t>
+    <x:t>@UR, @UR028, @DesktopOnly, @Admin</x:t>
   </x:si>
   <x:si>
     <x:t>As a company
@@ -3610,7 +3616,7 @@
     <x:t>I enter details including country name "United States"</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR027, @Desktop</x:t>
+    <x:t>@UR, @UR027, @DesktopOnly, @Labelling</x:t>
   </x:si>
   <x:si>
     <x:t>As a user
@@ -3657,7 +3663,7 @@
     <x:t>ShowProgress</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR026, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR026, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a user
@@ -3677,7 +3683,7 @@
     <x:t>SubmitImages</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR016, @Analysis, @Web</x:t>
+    <x:t>@UR, @UR016, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3745,7 +3751,7 @@
     <x:t>ToggleAnnotationVisibility</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR007, @Analysis, @Web, @Desktop</x:t>
+    <x:t>@UR, @UR007, @Analysis</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3777,7 +3783,7 @@
     <x:t>UpgradeClient</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR024, @Admin, @Desktop</x:t>
+    <x:t>@UR, @UR024, @Admin, @DesktopOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a user
@@ -3819,7 +3825,7 @@
     <x:t>UsernameLogin</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR017, @Security, @Web</x:t>
+    <x:t>@UR, @UR017, @Security, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a dentist
@@ -3860,7 +3866,7 @@
     <x:t>ViewAnalysisProgress</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR022, @Analysis, @Web</x:t>
+    <x:t>@UR, @UR022, @Analysis, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As a user 
@@ -3898,7 +3904,7 @@
     <x:t>ViewFeedback</x:t>
   </x:si>
   <x:si>
-    <x:t>@UR, @UR020, @Admin, @Web</x:t>
+    <x:t>@UR, @UR020, @Admin, @WebOnly</x:t>
   </x:si>
   <x:si>
     <x:t>As Manchester Imaging
@@ -4387,7 +4393,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>1257</x:v>
+        <x:v>1259</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -4547,32 +4553,32 @@
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="B33" s="6" t="s">
-        <x:v>637</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" s="1" t="s">
-        <x:v>1258</x:v>
+        <x:v>1260</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2">
       <x:c r="B35" s="6" t="s">
-        <x:v>656</x:v>
+        <x:v>658</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="B36" s="6" t="s">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="B37" s="6" t="s">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" s="1" t="s">
-        <x:v>1259</x:v>
+        <x:v>1261</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2">
@@ -4582,7 +4588,7 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="B40" s="6" t="s">
-        <x:v>895</x:v>
+        <x:v>897</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2">
@@ -4597,7 +4603,7 @@
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="B43" s="6" t="s">
-        <x:v>938</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2">
@@ -4607,22 +4613,22 @@
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="B45" s="6" t="s">
-        <x:v>950</x:v>
+        <x:v>952</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="B46" s="6" t="s">
-        <x:v>958</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="B47" s="6" t="s">
-        <x:v>996</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="B48" s="6" t="s">
-        <x:v>996</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2">
@@ -4632,12 +4638,12 @@
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="B50" s="6" t="s">
-        <x:v>1019</x:v>
+        <x:v>1021</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="B51" s="6" t="s">
-        <x:v>1027</x:v>
+        <x:v>1029</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2">
@@ -4652,17 +4658,17 @@
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="B54" s="6" t="s">
-        <x:v>1064</x:v>
+        <x:v>1066</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="B55" s="6" t="s">
-        <x:v>1078</x:v>
+        <x:v>1080</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="B56" s="6" t="s">
-        <x:v>1092</x:v>
+        <x:v>1094</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2">
@@ -4672,17 +4678,17 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="B58" s="6" t="s">
-        <x:v>1122</x:v>
+        <x:v>1124</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="B59" s="6" t="s">
-        <x:v>1134</x:v>
+        <x:v>1136</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="B60" s="6" t="s">
-        <x:v>1145</x:v>
+        <x:v>1147</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:2">
@@ -4692,37 +4698,37 @@
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="B62" s="6" t="s">
-        <x:v>1172</x:v>
+        <x:v>1174</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="B63" s="6" t="s">
-        <x:v>1178</x:v>
+        <x:v>1180</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="B64" s="6" t="s">
-        <x:v>1200</x:v>
+        <x:v>1202</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="B65" s="6" t="s">
-        <x:v>1210</x:v>
+        <x:v>1212</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="B66" s="6" t="s">
-        <x:v>1223</x:v>
+        <x:v>1225</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="B67" s="6" t="s">
-        <x:v>1236</x:v>
+        <x:v>1238</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="B68" s="6" t="s">
-        <x:v>1248</x:v>
+        <x:v>1250</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8264,18 +8270,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D20"/>
+  <x:dimension ref="A1:E113"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
         <x:v>567</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
+    <x:row r="2" spans="1:5">
       <x:c r="B2" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -8283,13 +8289,13 @@
         <x:v>568</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4"/>
-    <x:row r="5" spans="1:4">
+    <x:row r="3" spans="1:5"/>
+    <x:row r="5" spans="1:5">
       <x:c r="B5" s="1" t="s">
         <x:v>569</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4">
+    <x:row r="6" spans="1:5">
       <x:c r="B6" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -8297,8 +8303,8 @@
         <x:v>570</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4"/>
-    <x:row r="8" spans="1:4">
+    <x:row r="7" spans="1:5"/>
+    <x:row r="8" spans="1:5">
       <x:c r="C8" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -8306,7 +8312,7 @@
         <x:v>571</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:4">
+    <x:row r="9" spans="1:5">
       <x:c r="C9" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -8314,7 +8320,7 @@
         <x:v>572</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:4">
+    <x:row r="10" spans="1:5">
       <x:c r="C10" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -8322,66 +8328,644 @@
         <x:v>573</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
+    <x:row r="11" spans="1:5">
+      <x:c r="C11" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
         <x:v>574</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="B13" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
+    <x:row r="12" spans="1:5">
+      <x:c r="C12" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
         <x:v>575</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:4"/>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="3" t="s">
+    <x:row r="14" spans="1:5">
+      <x:c r="B14" s="1" t="s">
+        <x:v>576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="B15" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>577</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5"/>
+    <x:row r="17" spans="1:5">
+      <x:c r="C17" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>576</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
+      <x:c r="D17" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="C18" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>579</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="C19" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
         <x:v>572</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>573</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>577</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
+    <x:row r="20" spans="1:5">
+      <x:c r="C20" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>580</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="B22" s="1" t="s">
+        <x:v>581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="B23" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>582</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5"/>
+    <x:row r="25" spans="1:5">
+      <x:c r="C25" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
         <x:v>578</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
+    <x:row r="26" spans="1:5">
+      <x:c r="C26" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
         <x:v>579</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="C27" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="C28" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="B30" s="1" t="s">
+        <x:v>584</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="B31" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>585</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5"/>
+    <x:row r="33" spans="1:5">
+      <x:c r="C33" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="C34" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="C35" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="C36" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="B38" s="1" t="s">
+        <x:v>588</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="B39" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>589</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5"/>
+    <x:row r="41" spans="1:5">
+      <x:c r="C41" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="C42" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="C43" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D43" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="C44" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="C45" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>583</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="C46" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="B48" s="1" t="s">
+        <x:v>593</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="B49" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>594</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5"/>
+    <x:row r="51" spans="1:5">
+      <x:c r="C51" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="C52" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="C53" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D53" s="0" t="s">
+        <x:v>572</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="C54" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D54" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5">
+      <x:c r="B56" s="1" t="s">
+        <x:v>596</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5">
+      <x:c r="B57" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5"/>
+    <x:row r="59" spans="1:5">
+      <x:c r="C59" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D59" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:5">
+      <x:c r="C60" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:5">
+      <x:c r="C61" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:5">
+      <x:c r="C62" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D62" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:5">
+      <x:c r="C63" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D63" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:5">
+      <x:c r="C64" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:5">
+      <x:c r="B66" s="1" t="s">
+        <x:v>602</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:5">
+      <x:c r="B67" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C67" s="2" t="s">
+        <x:v>603</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:5"/>
+    <x:row r="69" spans="1:5">
+      <x:c r="C69" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D69" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:5">
+      <x:c r="C70" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:5">
+      <x:c r="C71" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D71" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:5">
+      <x:c r="C72" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D72" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:5">
+      <x:c r="C73" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:5">
+      <x:c r="C74" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:5">
+      <x:c r="C75" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:5">
+      <x:c r="C76" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:5">
+      <x:c r="C77" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:5">
+      <x:c r="B79" s="1" t="s">
+        <x:v>609</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:5">
+      <x:c r="B80" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C80" s="2" t="s">
+        <x:v>610</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:5"/>
+    <x:row r="82" spans="1:5">
+      <x:c r="C82" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D82" s="0" t="s">
+        <x:v>578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:5">
+      <x:c r="C83" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D83" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:5">
+      <x:c r="C84" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D84" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:5">
+      <x:c r="C85" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D85" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:5">
+      <x:c r="C86" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D86" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:5">
+      <x:c r="C87" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D87" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:5">
+      <x:c r="C88" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D88" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:5">
+      <x:c r="C89" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D89" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:5">
+      <x:c r="C90" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D90" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:5">
+      <x:c r="B92" s="1" t="s">
+        <x:v>612</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:5">
+      <x:c r="B93" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C93" s="2" t="s">
+        <x:v>613</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:5"/>
+    <x:row r="95" spans="1:5">
+      <x:c r="C95" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D95" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:5">
+      <x:c r="C96" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D96" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:5">
+      <x:c r="C97" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D97" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:5">
+      <x:c r="C98" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D98" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:5">
+      <x:c r="C99" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D99" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:5">
+      <x:c r="B101" s="1" t="s">
+        <x:v>619</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:5">
+      <x:c r="B102" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C102" s="2" t="s">
+        <x:v>620</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:5">
+      <x:c r="C103" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D103" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:5">
+      <x:c r="C104" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D104" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:5">
+      <x:c r="C105" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D105" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:5">
+      <x:c r="C106" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D106" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:5">
+      <x:c r="C107" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D107" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:5">
+      <x:c r="B109" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:5">
+      <x:c r="D110" s="4" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="E110" s="4" t="s">
+        <x:v>626</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:5">
+      <x:c r="D111" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E111" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:5">
+      <x:c r="D112" s="5" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E112" s="5" t="n">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:5">
+      <x:c r="D113" s="5" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E113" s="5" t="n">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8586,7 +9170,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D108"/>
+  <x:dimension ref="A1:D20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -8602,13 +9186,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>580</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4"/>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>581</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -8616,7 +9200,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>582</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -8625,7 +9209,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -8633,7 +9217,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -8641,45 +9225,45 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>585</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="C12" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>587</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
-        <x:v>588</x:v>
-      </x:c>
-    </x:row>
+      <x:c r="B12" s="1" t="s">
+        <x:v>633</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>634</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
     <x:row r="15" spans="1:4">
-      <x:c r="B15" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>589</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4"/>
+      <x:c r="C15" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+    </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="C17" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -8687,565 +9271,23 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>636</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="C19" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>637</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="C20" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>592</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="B22" s="1" t="s">
-        <x:v>593</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="B23" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>594</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4"/>
-    <x:row r="25" spans="1:4">
-      <x:c r="C25" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>591</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>584</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>595</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="B30" s="1" t="s">
-        <x:v>596</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="B31" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>597</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4"/>
-    <x:row r="33" spans="1:4">
-      <x:c r="C33" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:4">
-      <x:c r="C34" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>598</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:4">
-      <x:c r="C35" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>584</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:4">
-      <x:c r="C36" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>599</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:4">
-      <x:c r="B38" s="1" t="s">
-        <x:v>600</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:4">
-      <x:c r="B39" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>601</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:4"/>
-    <x:row r="41" spans="1:4">
-      <x:c r="C41" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4">
-      <x:c r="C42" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>598</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4">
-      <x:c r="C43" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>602</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:4">
-      <x:c r="C44" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D44" s="0" t="s">
-        <x:v>603</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:4">
-      <x:c r="C45" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D45" s="0" t="s">
-        <x:v>595</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:4">
-      <x:c r="C46" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D46" s="0" t="s">
-        <x:v>604</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:4">
-      <x:c r="B48" s="1" t="s">
-        <x:v>605</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:4">
-      <x:c r="B49" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>606</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:4"/>
-    <x:row r="51" spans="1:4">
-      <x:c r="C51" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:4">
-      <x:c r="C52" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D52" s="0" t="s">
-        <x:v>598</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:4">
-      <x:c r="C53" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s">
-        <x:v>584</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:4">
-      <x:c r="C54" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D54" s="0" t="s">
-        <x:v>607</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:4">
-      <x:c r="B56" s="1" t="s">
-        <x:v>608</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:4">
-      <x:c r="B57" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C57" s="2" t="s">
-        <x:v>609</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:4"/>
-    <x:row r="59" spans="1:4">
-      <x:c r="C59" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D59" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:4">
-      <x:c r="C60" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>598</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:4">
-      <x:c r="C61" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D61" s="0" t="s">
-        <x:v>610</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:4">
-      <x:c r="C62" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D62" s="0" t="s">
-        <x:v>611</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:4">
-      <x:c r="C63" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D63" s="0" t="s">
-        <x:v>612</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:4">
-      <x:c r="C64" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D64" s="0" t="s">
-        <x:v>613</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:4">
-      <x:c r="B66" s="1" t="s">
-        <x:v>614</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:4">
-      <x:c r="B67" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C67" s="2" t="s">
-        <x:v>615</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:4"/>
-    <x:row r="69" spans="1:4">
-      <x:c r="C69" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D69" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:4">
-      <x:c r="C70" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D70" s="0" t="s">
-        <x:v>598</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:4">
-      <x:c r="C71" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D71" s="0" t="s">
-        <x:v>602</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:4">
-      <x:c r="C72" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D72" s="0" t="s">
-        <x:v>610</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:4">
-      <x:c r="C73" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D73" s="0" t="s">
-        <x:v>616</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:4">
-      <x:c r="C74" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D74" s="0" t="s">
-        <x:v>617</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:4">
-      <x:c r="C75" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D75" s="0" t="s">
-        <x:v>618</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:4">
-      <x:c r="C76" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D76" s="0" t="s">
-        <x:v>619</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:4">
-      <x:c r="C77" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D77" s="0" t="s">
-        <x:v>620</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:4">
-      <x:c r="B79" s="1" t="s">
-        <x:v>621</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:4">
-      <x:c r="B80" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C80" s="2" t="s">
-        <x:v>622</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:4"/>
-    <x:row r="82" spans="1:4">
-      <x:c r="C82" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D82" s="0" t="s">
-        <x:v>590</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:4">
-      <x:c r="C83" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D83" s="0" t="s">
-        <x:v>598</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:4">
-      <x:c r="C84" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D84" s="0" t="s">
-        <x:v>602</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:4">
-      <x:c r="C85" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D85" s="0" t="s">
-        <x:v>610</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:4">
-      <x:c r="C86" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D86" s="0" t="s">
-        <x:v>616</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:4">
-      <x:c r="C87" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D87" s="0" t="s">
-        <x:v>623</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:4">
-      <x:c r="C88" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D88" s="0" t="s">
-        <x:v>618</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:4">
-      <x:c r="C89" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D89" s="0" t="s">
-        <x:v>619</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:4">
-      <x:c r="C90" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D90" s="0" t="s">
-        <x:v>620</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:4">
-      <x:c r="B92" s="1" t="s">
-        <x:v>624</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:4">
-      <x:c r="B93" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C93" s="2" t="s">
-        <x:v>625</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="94" spans="1:4"/>
-    <x:row r="95" spans="1:4">
-      <x:c r="C95" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D95" s="0" t="s">
-        <x:v>626</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:4">
-      <x:c r="C96" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D96" s="0" t="s">
-        <x:v>627</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:4">
-      <x:c r="C97" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D97" s="0" t="s">
-        <x:v>628</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:4">
-      <x:c r="C98" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D98" s="0" t="s">
-        <x:v>629</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:4">
-      <x:c r="C99" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D99" s="0" t="s">
-        <x:v>630</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:4">
-      <x:c r="B101" s="1" t="s">
-        <x:v>631</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:4">
-      <x:c r="B102" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C102" s="2" t="s">
-        <x:v>632</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="103" spans="1:4"/>
-    <x:row r="104" spans="1:4">
-      <x:c r="C104" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D104" s="0" t="s">
-        <x:v>583</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:4">
-      <x:c r="C105" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D105" s="0" t="s">
-        <x:v>633</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:4">
-      <x:c r="C106" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D106" s="0" t="s">
-        <x:v>634</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:4">
-      <x:c r="C107" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D107" s="0" t="s">
-        <x:v>635</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="108" spans="1:4">
-      <x:c r="C108" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D108" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9270,7 +9312,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>637</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -9278,13 +9320,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>638</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4"/>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>639</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -9292,7 +9334,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>640</x:v>
+        <x:v>642</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -9301,7 +9343,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -9309,7 +9351,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -9317,12 +9359,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>642</x:v>
+        <x:v>644</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -9330,7 +9372,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>643</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -9339,7 +9381,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -9347,7 +9389,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -9355,7 +9397,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -9363,7 +9405,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -9371,7 +9413,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -9379,7 +9421,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -9392,7 +9434,7 @@
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="B23" s="1" t="s">
-        <x:v>648</x:v>
+        <x:v>650</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -9400,7 +9442,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>649</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4"/>
@@ -9409,7 +9451,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -9417,7 +9459,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -9425,7 +9467,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -9433,7 +9475,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -9441,7 +9483,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>652</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
@@ -9449,7 +9491,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -9462,7 +9504,7 @@
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="B34" s="1" t="s">
-        <x:v>651</x:v>
+        <x:v>653</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -9470,7 +9512,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>652</x:v>
+        <x:v>654</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4"/>
@@ -9479,7 +9521,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -9487,7 +9529,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -9495,7 +9537,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -9503,7 +9545,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -9511,7 +9553,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>655</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -9519,7 +9561,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>656</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
@@ -9527,7 +9569,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>657</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -9552,7 +9594,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>656</x:v>
+        <x:v>658</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -9560,17 +9602,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>657</x:v>
+        <x:v>659</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="B3" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>660</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="B5" s="1" t="s">
-        <x:v>659</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -9578,7 +9620,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>660</x:v>
+        <x:v>662</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -9594,807 +9636,807 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>663</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="D9" s="4" t="s">
-        <x:v>662</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>663</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="D10" s="5" t="s">
-        <x:v>664</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>665</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="D11" s="5" t="s">
-        <x:v>666</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>667</x:v>
+        <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="D12" s="5" t="s">
-        <x:v>668</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="E12" s="5" t="s">
-        <x:v>669</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="D13" s="5" t="s">
-        <x:v>670</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="E13" s="5" t="s">
-        <x:v>671</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="D14" s="5" t="s">
-        <x:v>672</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="E14" s="5" t="s">
-        <x:v>673</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="D15" s="5" t="s">
-        <x:v>674</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="E15" s="5" t="s">
-        <x:v>675</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="D16" s="5" t="s">
-        <x:v>676</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="E16" s="5" t="s">
-        <x:v>677</x:v>
+        <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="D17" s="5" t="s">
-        <x:v>678</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="E17" s="5" t="s">
-        <x:v>679</x:v>
+        <x:v>681</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="D18" s="5" t="s">
-        <x:v>680</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="E18" s="5" t="s">
-        <x:v>681</x:v>
+        <x:v>683</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="D19" s="5" t="s">
-        <x:v>682</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="E19" s="5" t="s">
-        <x:v>683</x:v>
+        <x:v>685</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="D20" s="5" t="s">
-        <x:v>684</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="E20" s="5" t="s">
-        <x:v>685</x:v>
+        <x:v>687</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="D21" s="5" t="s">
-        <x:v>686</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="E21" s="5" t="s">
-        <x:v>687</x:v>
+        <x:v>689</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="D22" s="5" t="s">
-        <x:v>688</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="E22" s="5" t="s">
-        <x:v>689</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="D23" s="5" t="s">
-        <x:v>690</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="E23" s="5" t="s">
-        <x:v>691</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="D24" s="5" t="s">
-        <x:v>692</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="E24" s="5" t="s">
-        <x:v>693</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="D25" s="5" t="s">
-        <x:v>694</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="E25" s="5" t="s">
-        <x:v>695</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="D26" s="5" t="s">
-        <x:v>696</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="E26" s="5" t="s">
-        <x:v>697</x:v>
+        <x:v>699</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="D27" s="5" t="s">
-        <x:v>698</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="E27" s="5" t="s">
-        <x:v>699</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="D28" s="5" t="s">
-        <x:v>700</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="E28" s="5" t="s">
-        <x:v>701</x:v>
+        <x:v>703</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="D29" s="5" t="s">
-        <x:v>702</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="E29" s="5" t="s">
-        <x:v>703</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="D30" s="5" t="s">
-        <x:v>704</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="E30" s="5" t="s">
-        <x:v>705</x:v>
+        <x:v>707</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="D31" s="5" t="s">
-        <x:v>706</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="E31" s="5" t="s">
-        <x:v>707</x:v>
+        <x:v>709</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="D32" s="5" t="s">
-        <x:v>708</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="E32" s="5" t="s">
-        <x:v>709</x:v>
+        <x:v>711</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="D33" s="5" t="s">
-        <x:v>710</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="E33" s="5" t="s">
-        <x:v>711</x:v>
+        <x:v>713</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="D34" s="5" t="s">
-        <x:v>712</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="E34" s="5" t="s">
-        <x:v>713</x:v>
+        <x:v>715</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="D35" s="5" t="s">
-        <x:v>714</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="E35" s="5" t="s">
-        <x:v>715</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="D36" s="5" t="s">
-        <x:v>716</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="E36" s="5" t="s">
-        <x:v>717</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="D37" s="5" t="s">
-        <x:v>718</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="E37" s="5" t="s">
-        <x:v>719</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="D38" s="5" t="s">
-        <x:v>720</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="E38" s="5" t="s">
-        <x:v>721</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="D39" s="5" t="s">
-        <x:v>722</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="E39" s="5" t="s">
-        <x:v>723</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="D40" s="5" t="s">
-        <x:v>724</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="E40" s="5" t="s">
-        <x:v>725</x:v>
+        <x:v>727</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="D41" s="5" t="s">
-        <x:v>726</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="E41" s="5" t="s">
-        <x:v>727</x:v>
+        <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:5">
       <x:c r="D42" s="5" t="s">
-        <x:v>728</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="E42" s="5" t="s">
-        <x:v>729</x:v>
+        <x:v>731</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:5">
       <x:c r="D43" s="5" t="s">
-        <x:v>730</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="E43" s="5" t="s">
-        <x:v>731</x:v>
+        <x:v>733</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:5">
       <x:c r="D44" s="5" t="s">
-        <x:v>732</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="E44" s="5" t="s">
-        <x:v>733</x:v>
+        <x:v>735</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:5">
       <x:c r="D45" s="5" t="s">
-        <x:v>734</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="E45" s="5" t="s">
-        <x:v>735</x:v>
+        <x:v>737</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:5">
       <x:c r="D46" s="5" t="s">
-        <x:v>736</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="E46" s="5" t="s">
-        <x:v>737</x:v>
+        <x:v>739</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:5">
       <x:c r="D47" s="5" t="s">
-        <x:v>738</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="E47" s="5" t="s">
-        <x:v>739</x:v>
+        <x:v>741</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:5">
       <x:c r="D48" s="5" t="s">
-        <x:v>740</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="E48" s="5" t="s">
-        <x:v>741</x:v>
+        <x:v>743</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:5">
       <x:c r="D49" s="5" t="s">
-        <x:v>742</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="E49" s="5" t="s">
-        <x:v>743</x:v>
+        <x:v>745</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:5">
       <x:c r="D50" s="5" t="s">
-        <x:v>744</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="E50" s="5" t="s">
-        <x:v>745</x:v>
+        <x:v>747</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:5">
       <x:c r="D51" s="5" t="s">
-        <x:v>746</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="E51" s="5" t="s">
-        <x:v>747</x:v>
+        <x:v>749</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="D52" s="5" t="s">
-        <x:v>748</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="E52" s="5" t="s">
-        <x:v>749</x:v>
+        <x:v>751</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:5">
       <x:c r="D53" s="5" t="s">
-        <x:v>750</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="E53" s="5" t="s">
-        <x:v>751</x:v>
+        <x:v>753</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:5">
       <x:c r="D54" s="5" t="s">
-        <x:v>752</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="E54" s="5" t="s">
-        <x:v>753</x:v>
+        <x:v>755</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:5">
       <x:c r="D55" s="5" t="s">
-        <x:v>754</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="E55" s="5" t="s">
-        <x:v>755</x:v>
+        <x:v>757</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:5">
       <x:c r="D56" s="5" t="s">
-        <x:v>756</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="E56" s="5" t="s">
-        <x:v>757</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:5">
       <x:c r="D57" s="5" t="s">
-        <x:v>758</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="E57" s="5" t="s">
-        <x:v>759</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="D58" s="5" t="s">
-        <x:v>760</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="E58" s="5" t="s">
-        <x:v>761</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="D59" s="5" t="s">
-        <x:v>762</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="E59" s="5" t="s">
-        <x:v>763</x:v>
+        <x:v>765</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="D60" s="5" t="s">
-        <x:v>764</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="E60" s="5" t="s">
-        <x:v>765</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="D61" s="5" t="s">
-        <x:v>766</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="E61" s="5" t="s">
-        <x:v>767</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="D62" s="5" t="s">
-        <x:v>768</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="E62" s="5" t="s">
-        <x:v>769</x:v>
+        <x:v>771</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="D63" s="5" t="s">
-        <x:v>770</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="E63" s="5" t="s">
-        <x:v>771</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="D64" s="5" t="s">
-        <x:v>772</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="E64" s="5" t="s">
-        <x:v>773</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="D65" s="5" t="s">
-        <x:v>774</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="E65" s="5" t="s">
-        <x:v>775</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="D66" s="5" t="s">
-        <x:v>776</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="E66" s="5" t="s">
-        <x:v>777</x:v>
+        <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="D67" s="5" t="s">
-        <x:v>778</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="E67" s="5" t="s">
-        <x:v>779</x:v>
+        <x:v>781</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="D68" s="5" t="s">
-        <x:v>780</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="E68" s="5" t="s">
-        <x:v>781</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:5">
       <x:c r="D69" s="5" t="s">
-        <x:v>782</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="E69" s="5" t="s">
-        <x:v>783</x:v>
+        <x:v>785</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:5">
       <x:c r="D70" s="5" t="s">
-        <x:v>784</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="E70" s="5" t="s">
-        <x:v>785</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:5">
       <x:c r="D71" s="5" t="s">
-        <x:v>786</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="E71" s="5" t="s">
-        <x:v>787</x:v>
+        <x:v>789</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:5">
       <x:c r="D72" s="5" t="s">
-        <x:v>788</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="E72" s="5" t="s">
-        <x:v>789</x:v>
+        <x:v>791</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5">
       <x:c r="D73" s="5" t="s">
-        <x:v>790</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="E73" s="5" t="s">
-        <x:v>791</x:v>
+        <x:v>793</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:5">
       <x:c r="D74" s="5" t="s">
-        <x:v>792</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="E74" s="5" t="s">
-        <x:v>793</x:v>
+        <x:v>795</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:5">
       <x:c r="D75" s="5" t="s">
-        <x:v>794</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="E75" s="5" t="s">
-        <x:v>795</x:v>
+        <x:v>797</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:5">
       <x:c r="D76" s="5" t="s">
-        <x:v>796</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="E76" s="5" t="s">
-        <x:v>797</x:v>
+        <x:v>799</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:5">
       <x:c r="D77" s="5" t="s">
-        <x:v>798</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="E77" s="5" t="s">
-        <x:v>799</x:v>
+        <x:v>801</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:5">
       <x:c r="D78" s="5" t="s">
-        <x:v>800</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="E78" s="5" t="s">
-        <x:v>801</x:v>
+        <x:v>803</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:5">
       <x:c r="D79" s="5" t="s">
-        <x:v>802</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="E79" s="5" t="s">
-        <x:v>803</x:v>
+        <x:v>805</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:5">
       <x:c r="D80" s="5" t="s">
-        <x:v>804</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="E80" s="5" t="s">
-        <x:v>805</x:v>
+        <x:v>807</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:5">
       <x:c r="D81" s="5" t="s">
-        <x:v>806</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="E81" s="5" t="s">
-        <x:v>807</x:v>
+        <x:v>809</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:5">
       <x:c r="D82" s="5" t="s">
-        <x:v>808</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="E82" s="5" t="s">
-        <x:v>809</x:v>
+        <x:v>811</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5">
       <x:c r="D83" s="5" t="s">
-        <x:v>810</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="E83" s="5" t="s">
-        <x:v>811</x:v>
+        <x:v>813</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:5">
       <x:c r="D84" s="5" t="s">
-        <x:v>812</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="E84" s="5" t="s">
-        <x:v>813</x:v>
+        <x:v>815</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:5">
       <x:c r="D85" s="5" t="s">
-        <x:v>814</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="E85" s="5" t="s">
-        <x:v>815</x:v>
+        <x:v>817</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:5">
       <x:c r="D86" s="5" t="s">
-        <x:v>816</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="E86" s="5" t="s">
-        <x:v>817</x:v>
+        <x:v>819</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:5">
       <x:c r="D87" s="5" t="s">
-        <x:v>818</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="E87" s="5" t="s">
-        <x:v>819</x:v>
+        <x:v>821</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:5">
       <x:c r="D88" s="5" t="s">
-        <x:v>820</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="E88" s="5" t="s">
-        <x:v>821</x:v>
+        <x:v>823</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:5">
       <x:c r="D89" s="5" t="s">
-        <x:v>822</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="E89" s="5" t="s">
-        <x:v>823</x:v>
+        <x:v>825</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:5">
       <x:c r="D90" s="5" t="s">
-        <x:v>824</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="E90" s="5" t="s">
-        <x:v>825</x:v>
+        <x:v>827</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:5">
       <x:c r="D91" s="5" t="s">
-        <x:v>826</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="E91" s="5" t="s">
-        <x:v>827</x:v>
+        <x:v>829</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:5">
       <x:c r="D92" s="5" t="s">
-        <x:v>828</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="E92" s="5" t="s">
-        <x:v>829</x:v>
+        <x:v>831</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:5">
       <x:c r="D93" s="5" t="s">
-        <x:v>830</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="E93" s="5" t="s">
-        <x:v>831</x:v>
+        <x:v>833</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:5">
       <x:c r="D94" s="5" t="s">
-        <x:v>832</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="E94" s="5" t="s">
-        <x:v>833</x:v>
+        <x:v>835</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:5">
       <x:c r="D95" s="5" t="s">
-        <x:v>834</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="E95" s="5" t="s">
-        <x:v>835</x:v>
+        <x:v>837</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:5">
       <x:c r="D96" s="5" t="s">
-        <x:v>836</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="E96" s="5" t="s">
-        <x:v>837</x:v>
+        <x:v>839</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:5">
       <x:c r="D97" s="5" t="s">
-        <x:v>838</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="E97" s="5" t="s">
-        <x:v>839</x:v>
+        <x:v>841</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:5">
       <x:c r="D98" s="5" t="s">
-        <x:v>840</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="E98" s="5" t="s">
-        <x:v>841</x:v>
+        <x:v>843</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:5">
       <x:c r="D99" s="5" t="s">
-        <x:v>842</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="E99" s="5" t="s">
-        <x:v>843</x:v>
+        <x:v>845</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:5">
       <x:c r="D100" s="5" t="s">
-        <x:v>844</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="E100" s="5" t="s">
-        <x:v>845</x:v>
+        <x:v>847</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:5">
       <x:c r="D101" s="5" t="s">
-        <x:v>846</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="E101" s="5" t="s">
-        <x:v>847</x:v>
+        <x:v>849</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:5">
       <x:c r="D102" s="5" t="s">
-        <x:v>848</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="E102" s="5" t="s">
-        <x:v>849</x:v>
+        <x:v>851</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:5">
       <x:c r="D103" s="5" t="s">
-        <x:v>850</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="E103" s="5" t="s">
-        <x:v>851</x:v>
+        <x:v>853</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:5">
       <x:c r="D104" s="5" t="s">
-        <x:v>852</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="E104" s="5" t="s">
-        <x:v>853</x:v>
+        <x:v>855</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:5">
       <x:c r="D105" s="5" t="s">
-        <x:v>854</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="E105" s="5" t="s">
-        <x:v>855</x:v>
+        <x:v>857</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:5">
       <x:c r="D106" s="5" t="s">
-        <x:v>856</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="E106" s="5" t="s">
-        <x:v>857</x:v>
+        <x:v>859</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:5">
       <x:c r="D107" s="5" t="s">
-        <x:v>858</x:v>
+        <x:v>860</x:v>
       </x:c>
       <x:c r="E107" s="5" t="s">
-        <x:v>859</x:v>
+        <x:v>861</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:5">
       <x:c r="D108" s="5" t="s">
-        <x:v>860</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="E108" s="5" t="s">
-        <x:v>861</x:v>
+        <x:v>863</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5">
@@ -10402,7 +10444,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D109" s="0" t="s">
-        <x:v>862</x:v>
+        <x:v>864</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:5">
@@ -10410,7 +10452,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D110" s="0" t="s">
-        <x:v>863</x:v>
+        <x:v>865</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:5">
@@ -10418,7 +10460,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D111" s="0" t="s">
-        <x:v>864</x:v>
+        <x:v>866</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:5">
@@ -10426,12 +10468,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D112" s="0" t="s">
-        <x:v>865</x:v>
+        <x:v>867</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:5">
       <x:c r="B115" s="1" t="s">
-        <x:v>866</x:v>
+        <x:v>868</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:5">
@@ -10439,7 +10481,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C116" s="2" t="s">
-        <x:v>867</x:v>
+        <x:v>869</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:5">
@@ -10455,207 +10497,207 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D118" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>663</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:5">
       <x:c r="D119" s="4" t="s">
-        <x:v>662</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="E119" s="4" t="s">
-        <x:v>663</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:5">
       <x:c r="D120" s="5" t="s">
-        <x:v>824</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="E120" s="5" t="s">
-        <x:v>825</x:v>
+        <x:v>827</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:5">
       <x:c r="D121" s="5" t="s">
-        <x:v>828</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="E121" s="5" t="s">
-        <x:v>829</x:v>
+        <x:v>831</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:5">
       <x:c r="D122" s="5" t="s">
-        <x:v>832</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="E122" s="5" t="s">
-        <x:v>833</x:v>
+        <x:v>835</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:5">
       <x:c r="D123" s="5" t="s">
-        <x:v>786</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="E123" s="5" t="s">
-        <x:v>787</x:v>
+        <x:v>789</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:5">
       <x:c r="D124" s="5" t="s">
-        <x:v>788</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="E124" s="5" t="s">
-        <x:v>789</x:v>
+        <x:v>791</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:5">
       <x:c r="D125" s="5" t="s">
-        <x:v>792</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="E125" s="5" t="s">
-        <x:v>793</x:v>
+        <x:v>795</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:5">
       <x:c r="D126" s="5" t="s">
-        <x:v>846</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="E126" s="5" t="s">
-        <x:v>847</x:v>
+        <x:v>849</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:5">
       <x:c r="D127" s="5" t="s">
-        <x:v>848</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="E127" s="5" t="s">
-        <x:v>849</x:v>
+        <x:v>851</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:5">
       <x:c r="D128" s="5" t="s">
-        <x:v>852</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="E128" s="5" t="s">
-        <x:v>853</x:v>
+        <x:v>855</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:5">
       <x:c r="D129" s="5" t="s">
-        <x:v>856</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="E129" s="5" t="s">
-        <x:v>857</x:v>
+        <x:v>859</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:5">
       <x:c r="D130" s="5" t="s">
-        <x:v>860</x:v>
+        <x:v>862</x:v>
       </x:c>
       <x:c r="E130" s="5" t="s">
-        <x:v>861</x:v>
+        <x:v>863</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5">
       <x:c r="D131" s="5" t="s">
-        <x:v>764</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="E131" s="5" t="s">
-        <x:v>765</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:5">
       <x:c r="D132" s="5" t="s">
-        <x:v>678</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="E132" s="5" t="s">
-        <x:v>679</x:v>
+        <x:v>681</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:5">
       <x:c r="D133" s="5" t="s">
-        <x:v>682</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="E133" s="5" t="s">
-        <x:v>683</x:v>
+        <x:v>685</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:5">
       <x:c r="D134" s="5" t="s">
-        <x:v>684</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="E134" s="5" t="s">
-        <x:v>685</x:v>
+        <x:v>687</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:5">
       <x:c r="D135" s="5" t="s">
-        <x:v>700</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="E135" s="5" t="s">
-        <x:v>701</x:v>
+        <x:v>703</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:5">
       <x:c r="D136" s="5" t="s">
-        <x:v>704</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="E136" s="5" t="s">
-        <x:v>705</x:v>
+        <x:v>707</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:5">
       <x:c r="D137" s="5" t="s">
-        <x:v>732</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="E137" s="5" t="s">
-        <x:v>733</x:v>
+        <x:v>735</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:5">
       <x:c r="D138" s="5" t="s">
-        <x:v>738</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="E138" s="5" t="s">
-        <x:v>739</x:v>
+        <x:v>741</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:5">
       <x:c r="D139" s="5" t="s">
-        <x:v>750</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="E139" s="5" t="s">
-        <x:v>751</x:v>
+        <x:v>753</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:5">
       <x:c r="D140" s="5" t="s">
-        <x:v>756</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="E140" s="5" t="s">
-        <x:v>757</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:5">
       <x:c r="D141" s="5" t="s">
-        <x:v>760</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="E141" s="5" t="s">
-        <x:v>761</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:5">
       <x:c r="D142" s="5" t="s">
-        <x:v>804</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="E142" s="5" t="s">
-        <x:v>805</x:v>
+        <x:v>807</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:5">
       <x:c r="D143" s="5" t="s">
-        <x:v>816</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="E143" s="5" t="s">
-        <x:v>817</x:v>
+        <x:v>819</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:5">
@@ -10663,7 +10705,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D144" s="0" t="s">
-        <x:v>862</x:v>
+        <x:v>864</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:5">
@@ -10671,7 +10713,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D145" s="0" t="s">
-        <x:v>863</x:v>
+        <x:v>865</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:5">
@@ -10679,7 +10721,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D146" s="0" t="s">
-        <x:v>864</x:v>
+        <x:v>866</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:5">
@@ -10687,7 +10729,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D147" s="0" t="s">
-        <x:v>865</x:v>
+        <x:v>867</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10712,7 +10754,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -10720,13 +10762,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>869</x:v>
+        <x:v>871</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4"/>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>870</x:v>
+        <x:v>872</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -10734,7 +10776,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>871</x:v>
+        <x:v>873</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -10743,7 +10785,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>872</x:v>
+        <x:v>874</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -10751,7 +10793,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>873</x:v>
+        <x:v>875</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -10759,12 +10801,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>874</x:v>
+        <x:v>876</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>875</x:v>
+        <x:v>877</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -10772,7 +10814,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>876</x:v>
+        <x:v>878</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -10781,7 +10823,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>877</x:v>
+        <x:v>879</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -10789,7 +10831,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>878</x:v>
+        <x:v>880</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -10797,7 +10839,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>879</x:v>
+        <x:v>881</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -10805,12 +10847,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>880</x:v>
+        <x:v>882</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="B20" s="1" t="s">
-        <x:v>881</x:v>
+        <x:v>883</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -10818,7 +10860,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>882</x:v>
+        <x:v>884</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4"/>
@@ -10827,7 +10869,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>877</x:v>
+        <x:v>879</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -10843,7 +10885,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>883</x:v>
+        <x:v>885</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -10851,7 +10893,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>884</x:v>
+        <x:v>886</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10876,7 +10918,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>868</x:v>
+        <x:v>870</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -10884,13 +10926,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>885</x:v>
+        <x:v>887</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4"/>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>886</x:v>
+        <x:v>888</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -10898,7 +10940,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>887</x:v>
+        <x:v>889</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -10907,7 +10949,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>888</x:v>
+        <x:v>890</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -10915,7 +10957,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>889</x:v>
+        <x:v>891</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -10948,12 +10990,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>890</x:v>
+        <x:v>892</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>891</x:v>
+        <x:v>893</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -10966,7 +11008,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>892</x:v>
+        <x:v>894</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -10983,7 +11025,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>893</x:v>
+        <x:v>895</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -10991,7 +11033,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>894</x:v>
+        <x:v>896</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11016,7 +11058,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>895</x:v>
+        <x:v>897</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -11024,17 +11066,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>896</x:v>
+        <x:v>898</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>897</x:v>
+        <x:v>899</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>898</x:v>
+        <x:v>900</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -11042,7 +11084,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>899</x:v>
+        <x:v>901</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -11059,7 +11101,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>900</x:v>
+        <x:v>902</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -11067,12 +11109,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>901</x:v>
+        <x:v>903</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>902</x:v>
+        <x:v>904</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -11080,7 +11122,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>903</x:v>
+        <x:v>905</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -11097,7 +11139,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>904</x:v>
+        <x:v>906</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -11105,12 +11147,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>905</x:v>
+        <x:v>907</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="B19" s="1" t="s">
-        <x:v>906</x:v>
+        <x:v>908</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -11118,7 +11160,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>907</x:v>
+        <x:v>909</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4"/>
@@ -11135,7 +11177,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>910</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -11143,7 +11185,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>909</x:v>
+        <x:v>911</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
@@ -11151,12 +11193,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>910</x:v>
+        <x:v>912</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="B27" s="1" t="s">
-        <x:v>911</x:v>
+        <x:v>913</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -11164,7 +11206,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>912</x:v>
+        <x:v>914</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4"/>
@@ -11181,7 +11223,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>910</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -11189,7 +11231,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>913</x:v>
+        <x:v>915</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -11197,12 +11239,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>914</x:v>
+        <x:v>916</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="B35" s="1" t="s">
-        <x:v>915</x:v>
+        <x:v>917</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -11210,7 +11252,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>916</x:v>
+        <x:v>918</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4"/>
@@ -11227,7 +11269,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>908</x:v>
+        <x:v>910</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -11235,7 +11277,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>917</x:v>
+        <x:v>919</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -11243,7 +11285,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>918</x:v>
+        <x:v>920</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11276,17 +11318,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>919</x:v>
+        <x:v>921</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>920</x:v>
+        <x:v>922</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>921</x:v>
+        <x:v>923</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -11294,7 +11336,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>922</x:v>
+        <x:v>924</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -11303,7 +11345,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>923</x:v>
+        <x:v>925</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -11319,7 +11361,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>924</x:v>
+        <x:v>926</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -11348,7 +11390,7 @@
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="B15" s="1" t="s">
-        <x:v>925</x:v>
+        <x:v>927</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -11356,7 +11398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>926</x:v>
+        <x:v>928</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4"/>
@@ -11365,7 +11407,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>927</x:v>
+        <x:v>929</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -11381,7 +11423,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>924</x:v>
+        <x:v>926</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -11394,7 +11436,7 @@
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="B23" s="1" t="s">
-        <x:v>928</x:v>
+        <x:v>930</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -11402,7 +11444,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>929</x:v>
+        <x:v>931</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4"/>
@@ -11411,7 +11453,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>930</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -11427,7 +11469,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>924</x:v>
+        <x:v>926</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -11468,17 +11510,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>931</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>932</x:v>
+        <x:v>934</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>933</x:v>
+        <x:v>935</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -11486,7 +11528,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>934</x:v>
+        <x:v>936</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -11495,7 +11537,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>935</x:v>
+        <x:v>937</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -11503,7 +11545,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>936</x:v>
+        <x:v>938</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -11511,7 +11553,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>937</x:v>
+        <x:v>939</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11536,7 +11578,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>938</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -11544,17 +11586,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>939</x:v>
+        <x:v>941</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>940</x:v>
+        <x:v>942</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>938</x:v>
+        <x:v>940</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -11562,7 +11604,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>941</x:v>
+        <x:v>943</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -11579,7 +11621,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>942</x:v>
+        <x:v>944</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -11587,7 +11629,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>943</x:v>
+        <x:v>945</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11620,12 +11662,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>944</x:v>
+        <x:v>946</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>945</x:v>
+        <x:v>947</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -11638,7 +11680,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>946</x:v>
+        <x:v>948</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -11692,7 +11734,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>947</x:v>
+        <x:v>949</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4"/>
@@ -11746,7 +11788,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>948</x:v>
+        <x:v>950</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4"/>
@@ -11816,7 +11858,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>949</x:v>
+        <x:v>951</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4"/>
@@ -11890,7 +11932,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>950</x:v>
+        <x:v>952</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -11898,17 +11940,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>951</x:v>
+        <x:v>953</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>952</x:v>
+        <x:v>954</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>950</x:v>
+        <x:v>952</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -11916,7 +11958,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>953</x:v>
+        <x:v>955</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -11933,7 +11975,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>956</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -11941,7 +11983,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>955</x:v>
+        <x:v>957</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -11949,7 +11991,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>956</x:v>
+        <x:v>958</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -11957,7 +11999,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>957</x:v>
+        <x:v>959</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -11982,7 +12024,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>958</x:v>
+        <x:v>960</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -11990,17 +12032,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>959</x:v>
+        <x:v>961</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>960</x:v>
+        <x:v>962</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>961</x:v>
+        <x:v>963</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -12008,7 +12050,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>962</x:v>
+        <x:v>964</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -12017,7 +12059,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -12025,7 +12067,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -12033,7 +12075,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>964</x:v>
+        <x:v>966</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -12041,7 +12083,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>967</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -12049,7 +12091,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>966</x:v>
+        <x:v>968</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -12057,12 +12099,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>967</x:v>
+        <x:v>969</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="B15" s="1" t="s">
-        <x:v>968</x:v>
+        <x:v>970</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -12070,7 +12112,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>969</x:v>
+        <x:v>971</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4"/>
@@ -12079,7 +12121,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -12087,7 +12129,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>973</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -12095,7 +12137,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -12103,12 +12145,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>972</x:v>
+        <x:v>974</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="B23" s="1" t="s">
-        <x:v>973</x:v>
+        <x:v>975</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -12116,7 +12158,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>974</x:v>
+        <x:v>976</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4"/>
@@ -12125,7 +12167,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -12133,7 +12175,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>971</x:v>
+        <x:v>973</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -12141,7 +12183,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -12149,7 +12191,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>975</x:v>
+        <x:v>977</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -12157,12 +12199,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>976</x:v>
+        <x:v>978</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="B32" s="1" t="s">
-        <x:v>605</x:v>
+        <x:v>593</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
@@ -12170,7 +12212,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>977</x:v>
+        <x:v>979</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4"/>
@@ -12179,7 +12221,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -12187,7 +12229,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>978</x:v>
+        <x:v>980</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
@@ -12195,7 +12237,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
@@ -12203,12 +12245,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>575</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="B40" s="1" t="s">
-        <x:v>608</x:v>
+        <x:v>596</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -12216,7 +12258,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>979</x:v>
+        <x:v>981</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4"/>
@@ -12225,7 +12267,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>970</x:v>
+        <x:v>972</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
@@ -12233,7 +12275,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D44" s="0" t="s">
-        <x:v>978</x:v>
+        <x:v>980</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
@@ -12241,7 +12283,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
-        <x:v>980</x:v>
+        <x:v>982</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
@@ -12249,12 +12291,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="B48" s="1" t="s">
-        <x:v>614</x:v>
+        <x:v>602</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
@@ -12262,7 +12304,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C49" s="2" t="s">
-        <x:v>981</x:v>
+        <x:v>983</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4"/>
@@ -12271,7 +12313,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
-        <x:v>982</x:v>
+        <x:v>984</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4">
@@ -12279,7 +12321,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D52" s="0" t="s">
-        <x:v>983</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4">
@@ -12287,7 +12329,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
-        <x:v>984</x:v>
+        <x:v>986</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
@@ -12295,7 +12337,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D54" s="0" t="s">
-        <x:v>965</x:v>
+        <x:v>967</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4">
@@ -12303,12 +12345,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
-        <x:v>985</x:v>
+        <x:v>987</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4">
       <x:c r="B57" s="1" t="s">
-        <x:v>986</x:v>
+        <x:v>988</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:4">
@@ -12316,7 +12358,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>987</x:v>
+        <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4"/>
@@ -12325,7 +12367,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
-        <x:v>988</x:v>
+        <x:v>990</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4">
@@ -12333,7 +12375,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
-        <x:v>989</x:v>
+        <x:v>991</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
@@ -12341,12 +12383,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D62" s="0" t="s">
-        <x:v>990</x:v>
+        <x:v>992</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:4">
       <x:c r="B64" s="1" t="s">
-        <x:v>991</x:v>
+        <x:v>993</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:4">
@@ -12354,7 +12396,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C65" s="2" t="s">
-        <x:v>992</x:v>
+        <x:v>994</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4"/>
@@ -12363,7 +12405,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
-        <x:v>993</x:v>
+        <x:v>995</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:4">
@@ -12371,7 +12413,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
-        <x:v>994</x:v>
+        <x:v>996</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4">
@@ -12379,7 +12421,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4">
@@ -12387,7 +12429,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D70" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:4">
@@ -12395,7 +12437,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D71" s="0" t="s">
-        <x:v>995</x:v>
+        <x:v>997</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12420,7 +12462,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>996</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -12428,17 +12470,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>997</x:v>
+        <x:v>999</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>998</x:v>
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>999</x:v>
+        <x:v>1001</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -12446,7 +12488,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1000</x:v>
+        <x:v>1002</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -12463,7 +12505,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1001</x:v>
+        <x:v>1003</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12488,7 +12530,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>996</x:v>
+        <x:v>998</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -12496,17 +12538,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1002</x:v>
+        <x:v>1004</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1003</x:v>
+        <x:v>1005</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1004</x:v>
+        <x:v>1006</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -12514,7 +12556,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1005</x:v>
+        <x:v>1007</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -12531,12 +12573,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1006</x:v>
+        <x:v>1008</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="B11" s="1" t="s">
-        <x:v>1007</x:v>
+        <x:v>1009</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -12544,7 +12586,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>1008</x:v>
+        <x:v>1010</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4"/>
@@ -12561,7 +12603,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1006</x:v>
+        <x:v>1008</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -12569,7 +12611,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>1009</x:v>
+        <x:v>1011</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12602,17 +12644,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1010</x:v>
+        <x:v>1012</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1011</x:v>
+        <x:v>1013</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1012</x:v>
+        <x:v>1014</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -12620,7 +12662,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1013</x:v>
+        <x:v>1015</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -12637,12 +12679,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1014</x:v>
+        <x:v>1016</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="B11" s="1" t="s">
-        <x:v>1015</x:v>
+        <x:v>1017</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -12650,7 +12692,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>1016</x:v>
+        <x:v>1018</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4"/>
@@ -12659,7 +12701,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>1017</x:v>
+        <x:v>1019</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -12667,7 +12709,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1018</x:v>
+        <x:v>1020</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12850,7 +12892,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1019</x:v>
+        <x:v>1021</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -12858,12 +12900,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1020</x:v>
+        <x:v>1022</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1021</x:v>
+        <x:v>1023</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -12876,7 +12918,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1022</x:v>
+        <x:v>1024</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -12893,7 +12935,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1023</x:v>
+        <x:v>1025</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -12901,7 +12943,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1024</x:v>
+        <x:v>1026</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -12914,7 +12956,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>1025</x:v>
+        <x:v>1027</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -12923,7 +12965,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1026</x:v>
+        <x:v>1028</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -12931,7 +12973,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>1023</x:v>
+        <x:v>1025</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -12939,7 +12981,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1024</x:v>
+        <x:v>1026</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -12964,7 +13006,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1027</x:v>
+        <x:v>1029</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -12972,17 +13014,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1028</x:v>
+        <x:v>1030</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1029</x:v>
+        <x:v>1031</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1030</x:v>
+        <x:v>1032</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -12990,7 +13032,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1031</x:v>
+        <x:v>1033</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13007,7 +13049,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1032</x:v>
+        <x:v>1034</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -13015,12 +13057,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1033</x:v>
+        <x:v>1035</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>1034</x:v>
+        <x:v>1036</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -13028,7 +13070,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>1035</x:v>
+        <x:v>1037</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -13037,7 +13079,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1036</x:v>
+        <x:v>1038</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -13045,7 +13087,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>1037</x:v>
+        <x:v>1039</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -13053,7 +13095,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1038</x:v>
+        <x:v>1040</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13086,17 +13128,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1039</x:v>
+        <x:v>1041</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1040</x:v>
+        <x:v>1042</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1041</x:v>
+        <x:v>1043</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -13104,7 +13146,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1042</x:v>
+        <x:v>1044</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13113,7 +13155,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1043</x:v>
+        <x:v>1045</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -13121,7 +13163,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1044</x:v>
+        <x:v>1046</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -13129,7 +13171,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1045</x:v>
+        <x:v>1047</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -13137,7 +13179,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1046</x:v>
+        <x:v>1048</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -13145,7 +13187,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>1047</x:v>
+        <x:v>1049</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -13153,7 +13195,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>1048</x:v>
+        <x:v>1050</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -13161,7 +13203,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>1049</x:v>
+        <x:v>1051</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -13169,7 +13211,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1050</x:v>
+        <x:v>1052</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -13177,7 +13219,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>1051</x:v>
+        <x:v>1053</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -13185,7 +13227,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1052</x:v>
+        <x:v>1054</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13218,17 +13260,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1053</x:v>
+        <x:v>1055</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1054</x:v>
+        <x:v>1056</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1055</x:v>
+        <x:v>1057</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -13236,7 +13278,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1056</x:v>
+        <x:v>1058</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13261,7 +13303,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1057</x:v>
+        <x:v>1059</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -13269,12 +13311,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1058</x:v>
+        <x:v>1060</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>1059</x:v>
+        <x:v>1061</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -13282,7 +13324,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>1060</x:v>
+        <x:v>1062</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -13299,7 +13341,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1061</x:v>
+        <x:v>1063</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -13307,7 +13349,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1062</x:v>
+        <x:v>1064</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -13315,7 +13357,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1063</x:v>
+        <x:v>1065</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13340,7 +13382,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1064</x:v>
+        <x:v>1066</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -13348,17 +13390,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1065</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1066</x:v>
+        <x:v>1068</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1067</x:v>
+        <x:v>1069</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -13366,7 +13408,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1068</x:v>
+        <x:v>1070</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13375,7 +13417,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1069</x:v>
+        <x:v>1071</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -13383,7 +13425,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1070</x:v>
+        <x:v>1072</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -13391,7 +13433,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1071</x:v>
+        <x:v>1073</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -13399,7 +13441,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1072</x:v>
+        <x:v>1074</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -13407,7 +13449,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>1073</x:v>
+        <x:v>1075</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -13415,7 +13457,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>1074</x:v>
+        <x:v>1076</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -13423,7 +13465,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>1075</x:v>
+        <x:v>1077</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -13431,7 +13473,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1076</x:v>
+        <x:v>1078</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -13439,7 +13481,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>1077</x:v>
+        <x:v>1079</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13464,7 +13506,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1078</x:v>
+        <x:v>1080</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -13472,17 +13514,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1079</x:v>
+        <x:v>1081</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1080</x:v>
+        <x:v>1082</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1081</x:v>
+        <x:v>1083</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -13490,7 +13532,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1082</x:v>
+        <x:v>1084</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13507,7 +13549,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1083</x:v>
+        <x:v>1085</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -13515,7 +13557,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1084</x:v>
+        <x:v>1086</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -13523,7 +13565,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1085</x:v>
+        <x:v>1087</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -13531,7 +13573,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>1086</x:v>
+        <x:v>1088</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -13539,12 +13581,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>1087</x:v>
+        <x:v>1089</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="B15" s="1" t="s">
-        <x:v>1088</x:v>
+        <x:v>1090</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -13552,7 +13594,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>1089</x:v>
+        <x:v>1091</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4"/>
@@ -13569,7 +13611,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1090</x:v>
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -13577,7 +13619,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1084</x:v>
+        <x:v>1086</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -13585,7 +13627,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>1085</x:v>
+        <x:v>1087</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -13593,7 +13635,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>1086</x:v>
+        <x:v>1088</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -13601,7 +13643,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>1091</x:v>
+        <x:v>1093</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13626,7 +13668,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1092</x:v>
+        <x:v>1094</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -13634,17 +13676,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1093</x:v>
+        <x:v>1095</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1094</x:v>
+        <x:v>1096</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1095</x:v>
+        <x:v>1097</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -13652,7 +13694,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1096</x:v>
+        <x:v>1098</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13669,7 +13711,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1014</x:v>
+        <x:v>1016</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -13677,7 +13719,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1097</x:v>
+        <x:v>1099</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -13685,12 +13727,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1098</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>1099</x:v>
+        <x:v>1101</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -13698,7 +13740,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>1100</x:v>
+        <x:v>1102</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -13715,7 +13757,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1101</x:v>
+        <x:v>1103</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -13723,7 +13765,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1102</x:v>
+        <x:v>1104</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -13731,7 +13773,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1103</x:v>
+        <x:v>1105</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -13739,7 +13781,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1104</x:v>
+        <x:v>1106</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -13747,7 +13789,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>1103</x:v>
+        <x:v>1105</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13780,17 +13822,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1105</x:v>
+        <x:v>1107</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1106</x:v>
+        <x:v>1108</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1107</x:v>
+        <x:v>1109</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -13798,7 +13840,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1108</x:v>
+        <x:v>1110</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13815,7 +13857,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1109</x:v>
+        <x:v>1111</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -13823,12 +13865,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1110</x:v>
+        <x:v>1112</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>1111</x:v>
+        <x:v>1113</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -13836,7 +13878,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>1112</x:v>
+        <x:v>1114</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -13853,7 +13895,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>1113</x:v>
+        <x:v>1115</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -13861,7 +13903,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1114</x:v>
+        <x:v>1116</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -13869,7 +13911,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1115</x:v>
+        <x:v>1117</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -13877,12 +13919,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1116</x:v>
+        <x:v>1118</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="B21" s="1" t="s">
-        <x:v>1117</x:v>
+        <x:v>1119</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -13890,7 +13932,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>1118</x:v>
+        <x:v>1120</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4"/>
@@ -13907,7 +13949,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>1119</x:v>
+        <x:v>1121</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -13915,7 +13957,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>1120</x:v>
+        <x:v>1122</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -13923,7 +13965,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>1121</x:v>
+        <x:v>1123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -13948,7 +13990,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1122</x:v>
+        <x:v>1124</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -13956,17 +13998,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1123</x:v>
+        <x:v>1125</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1124</x:v>
+        <x:v>1126</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1125</x:v>
+        <x:v>1127</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -13974,7 +14016,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1126</x:v>
+        <x:v>1128</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -13983,7 +14025,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1127</x:v>
+        <x:v>1129</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -13991,12 +14033,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1128</x:v>
+        <x:v>1130</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="B11" s="1" t="s">
-        <x:v>1129</x:v>
+        <x:v>1131</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -14004,7 +14046,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>1130</x:v>
+        <x:v>1132</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4"/>
@@ -14013,7 +14055,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>1131</x:v>
+        <x:v>1133</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -14021,7 +14063,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1132</x:v>
+        <x:v>1134</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -14029,7 +14071,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>1133</x:v>
+        <x:v>1135</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14054,7 +14096,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1134</x:v>
+        <x:v>1136</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -14062,17 +14104,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1135</x:v>
+        <x:v>1137</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1136</x:v>
+        <x:v>1138</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1137</x:v>
+        <x:v>1139</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -14080,7 +14122,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1138</x:v>
+        <x:v>1140</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -14097,7 +14139,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1139</x:v>
+        <x:v>1141</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -14105,7 +14147,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1140</x:v>
+        <x:v>1142</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -14113,12 +14155,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1141</x:v>
+        <x:v>1143</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>1142</x:v>
+        <x:v>1144</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -14126,7 +14168,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>1138</x:v>
+        <x:v>1140</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -14143,7 +14185,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>956</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -14151,7 +14193,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>955</x:v>
+        <x:v>957</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -14159,7 +14201,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1143</x:v>
+        <x:v>1145</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -14167,7 +14209,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1144</x:v>
+        <x:v>1146</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14192,7 +14234,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1145</x:v>
+        <x:v>1147</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -14200,17 +14242,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1146</x:v>
+        <x:v>1148</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1147</x:v>
+        <x:v>1149</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1148</x:v>
+        <x:v>1150</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -14218,7 +14260,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1149</x:v>
+        <x:v>1151</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -14227,7 +14269,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -14243,7 +14285,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1150</x:v>
+        <x:v>1152</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -14251,7 +14293,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1151</x:v>
+        <x:v>1153</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -14264,7 +14306,7 @@
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="B14" s="1" t="s">
-        <x:v>1152</x:v>
+        <x:v>1154</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -14272,7 +14314,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>1153</x:v>
+        <x:v>1155</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4"/>
@@ -14281,7 +14323,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -14297,7 +14339,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1154</x:v>
+        <x:v>1156</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -14305,7 +14347,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1151</x:v>
+        <x:v>1153</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -14318,7 +14360,7 @@
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="B23" s="1" t="s">
-        <x:v>1155</x:v>
+        <x:v>1157</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -14326,7 +14368,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>1156</x:v>
+        <x:v>1158</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4"/>
@@ -14335,7 +14377,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>963</x:v>
+        <x:v>965</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
@@ -14351,7 +14393,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>1157</x:v>
+        <x:v>1159</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -14359,7 +14401,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>1151</x:v>
+        <x:v>1153</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -14400,17 +14442,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1158</x:v>
+        <x:v>1160</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1159</x:v>
+        <x:v>1161</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1160</x:v>
+        <x:v>1162</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -14418,7 +14460,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1161</x:v>
+        <x:v>1163</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -14443,12 +14485,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1162</x:v>
+        <x:v>1164</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>1163</x:v>
+        <x:v>1165</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -14456,7 +14498,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>1164</x:v>
+        <x:v>1166</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -14481,7 +14523,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1162</x:v>
+        <x:v>1164</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -14489,7 +14531,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1165</x:v>
+        <x:v>1167</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -14497,7 +14539,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1166</x:v>
+        <x:v>1168</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -14505,7 +14547,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1167</x:v>
+        <x:v>1169</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -14513,12 +14555,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>1168</x:v>
+        <x:v>1170</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="B23" s="1" t="s">
-        <x:v>1169</x:v>
+        <x:v>1171</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -14526,7 +14568,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>1170</x:v>
+        <x:v>1172</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4"/>
@@ -14543,7 +14585,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>1171</x:v>
+        <x:v>1173</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -14551,7 +14593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>1162</x:v>
+        <x:v>1164</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14576,7 +14618,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1172</x:v>
+        <x:v>1174</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -14584,12 +14626,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1173</x:v>
+        <x:v>1175</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1174</x:v>
+        <x:v>1176</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -14602,7 +14644,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1175</x:v>
+        <x:v>1177</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -14611,7 +14653,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1176</x:v>
+        <x:v>1178</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -14619,7 +14661,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1177</x:v>
+        <x:v>1179</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14644,7 +14686,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1178</x:v>
+        <x:v>1180</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -14652,17 +14694,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1179</x:v>
+        <x:v>1181</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1180</x:v>
+        <x:v>1182</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1181</x:v>
+        <x:v>1183</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -14670,7 +14712,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1182</x:v>
+        <x:v>1184</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -14679,7 +14721,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1183</x:v>
+        <x:v>1185</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -14687,7 +14729,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1184</x:v>
+        <x:v>1186</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -14695,7 +14737,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1185</x:v>
+        <x:v>1187</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -14703,7 +14745,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1186</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -14719,12 +14761,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>1187</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="B15" s="1" t="s">
-        <x:v>1188</x:v>
+        <x:v>1190</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -14732,7 +14774,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>1189</x:v>
+        <x:v>1191</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4"/>
@@ -14741,7 +14783,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1183</x:v>
+        <x:v>1185</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -14749,7 +14791,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1184</x:v>
+        <x:v>1186</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -14757,7 +14799,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1190</x:v>
+        <x:v>1192</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -14765,7 +14807,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>1191</x:v>
+        <x:v>1193</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -14773,7 +14815,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>1192</x:v>
+        <x:v>1194</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -14781,12 +14823,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>1193</x:v>
+        <x:v>1195</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="B25" s="1" t="s">
-        <x:v>1194</x:v>
+        <x:v>1196</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
@@ -14794,7 +14836,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>1195</x:v>
+        <x:v>1197</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4"/>
@@ -14803,7 +14845,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>1183</x:v>
+        <x:v>1185</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
@@ -14811,7 +14853,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>1184</x:v>
+        <x:v>1186</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -14819,7 +14861,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>1196</x:v>
+        <x:v>1198</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
@@ -14827,7 +14869,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>1186</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
@@ -14843,12 +14885,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>1187</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="B35" s="1" t="s">
-        <x:v>1197</x:v>
+        <x:v>1199</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
@@ -14856,7 +14898,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>1198</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4"/>
@@ -14865,7 +14907,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>1183</x:v>
+        <x:v>1185</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -14873,7 +14915,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>1184</x:v>
+        <x:v>1186</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
@@ -14881,7 +14923,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>1199</x:v>
+        <x:v>1201</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
@@ -14889,7 +14931,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>1186</x:v>
+        <x:v>1188</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -14905,7 +14947,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
-        <x:v>1187</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -14930,7 +14972,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1200</x:v>
+        <x:v>1202</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -14938,12 +14980,12 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1201</x:v>
+        <x:v>1203</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1202</x:v>
+        <x:v>1204</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -14956,7 +14998,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1203</x:v>
+        <x:v>1205</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -14973,7 +15015,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>956</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -14981,7 +15023,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1204</x:v>
+        <x:v>1206</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -14989,7 +15031,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1205</x:v>
+        <x:v>1207</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -15002,7 +15044,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>1206</x:v>
+        <x:v>1208</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -15019,7 +15061,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>954</x:v>
+        <x:v>956</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -15027,7 +15069,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1207</x:v>
+        <x:v>1209</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -15035,7 +15077,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1208</x:v>
+        <x:v>1210</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -15043,7 +15085,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1209</x:v>
+        <x:v>1211</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15068,7 +15110,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1210</x:v>
+        <x:v>1212</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -15076,17 +15118,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1211</x:v>
+        <x:v>1213</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1212</x:v>
+        <x:v>1214</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1213</x:v>
+        <x:v>1215</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -15094,7 +15136,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>934</x:v>
+        <x:v>936</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -15103,7 +15145,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1214</x:v>
+        <x:v>1216</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -15111,7 +15153,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -15119,12 +15161,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1215</x:v>
+        <x:v>1217</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>1216</x:v>
+        <x:v>1218</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -15132,7 +15174,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>1217</x:v>
+        <x:v>1219</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -15141,7 +15183,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>1218</x:v>
+        <x:v>1220</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -15149,7 +15191,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
@@ -15157,12 +15199,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1219</x:v>
+        <x:v>1221</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="B19" s="1" t="s">
-        <x:v>1220</x:v>
+        <x:v>1222</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -15170,7 +15212,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>1221</x:v>
+        <x:v>1223</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4"/>
@@ -15179,7 +15221,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>1218</x:v>
+        <x:v>1220</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -15187,7 +15229,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
@@ -15195,7 +15237,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>1222</x:v>
+        <x:v>1224</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15292,7 +15334,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1223</x:v>
+        <x:v>1225</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -15300,17 +15342,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1224</x:v>
+        <x:v>1226</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1225</x:v>
+        <x:v>1227</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1226</x:v>
+        <x:v>1228</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -15318,7 +15360,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1227</x:v>
+        <x:v>1229</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -15335,7 +15377,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1228</x:v>
+        <x:v>1230</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -15343,7 +15385,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1229</x:v>
+        <x:v>1231</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -15351,7 +15393,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1230</x:v>
+        <x:v>1232</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -15359,12 +15401,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>1231</x:v>
+        <x:v>1233</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="B14" s="1" t="s">
-        <x:v>1232</x:v>
+        <x:v>1234</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
@@ -15372,7 +15414,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>1233</x:v>
+        <x:v>1235</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4"/>
@@ -15389,7 +15431,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1234</x:v>
+        <x:v>1236</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -15397,7 +15439,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1229</x:v>
+        <x:v>1231</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -15405,7 +15447,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1230</x:v>
+        <x:v>1232</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
@@ -15413,7 +15455,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>1235</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15438,7 +15480,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1236</x:v>
+        <x:v>1238</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -15446,17 +15488,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1237</x:v>
+        <x:v>1239</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1238</x:v>
+        <x:v>1240</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1239</x:v>
+        <x:v>1241</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -15464,7 +15506,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1240</x:v>
+        <x:v>1242</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -15489,7 +15531,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1241</x:v>
+        <x:v>1243</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -15497,12 +15539,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1242</x:v>
+        <x:v>1244</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>1243</x:v>
+        <x:v>1245</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -15510,7 +15552,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>1244</x:v>
+        <x:v>1246</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -15535,7 +15577,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1245</x:v>
+        <x:v>1247</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -15543,7 +15585,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1246</x:v>
+        <x:v>1248</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -15551,7 +15593,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>1247</x:v>
+        <x:v>1249</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -15576,7 +15618,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>1248</x:v>
+        <x:v>1250</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -15584,17 +15626,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1249</x:v>
+        <x:v>1251</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>1250</x:v>
+        <x:v>1252</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>1251</x:v>
+        <x:v>1253</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -15602,7 +15644,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>1252</x:v>
+        <x:v>1254</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -15619,7 +15661,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>1083</x:v>
+        <x:v>1085</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -15627,7 +15669,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>1253</x:v>
+        <x:v>1255</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -15635,12 +15677,12 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>1254</x:v>
+        <x:v>1256</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>1255</x:v>
+        <x:v>1257</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -15648,7 +15690,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>1256</x:v>
+        <x:v>1258</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -15665,7 +15707,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>1090</x:v>
+        <x:v>1092</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
@@ -15673,7 +15715,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>1253</x:v>
+        <x:v>1255</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -15681,7 +15723,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>1254</x:v>
+        <x:v>1256</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
